--- a/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>25239</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16996</v>
+        <v>16202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35931</v>
+        <v>35730</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03666755547487148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0246918714070909</v>
+        <v>0.02353887213745994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05220125346068127</v>
+        <v>0.05190917957699965</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -764,19 +764,19 @@
         <v>47122</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35936</v>
+        <v>35331</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62086</v>
+        <v>61566</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04913895104597942</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03747414345148029</v>
+        <v>0.0368431775501668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06474351030366232</v>
+        <v>0.06420107787463239</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -785,19 +785,19 @@
         <v>72361</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57600</v>
+        <v>57550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89661</v>
+        <v>90172</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04392772264739978</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03496644255142708</v>
+        <v>0.03493629322307332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05442959907912116</v>
+        <v>0.05473969779698914</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>663086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>652394</v>
+        <v>652595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>671329</v>
+        <v>672123</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9633324445251286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9477987465393187</v>
+        <v>0.9480908204230004</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9753081285929092</v>
+        <v>0.9764611278625401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>900</v>
@@ -835,19 +835,19 @@
         <v>911837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>896873</v>
+        <v>897393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>923023</v>
+        <v>923628</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9508610489540206</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9352564896963376</v>
+        <v>0.9357989221253677</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9625258565485197</v>
+        <v>0.9631568224498332</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1568</v>
@@ -856,19 +856,19 @@
         <v>1574923</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1557623</v>
+        <v>1557112</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1589684</v>
+        <v>1589734</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9560722773526003</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9455704009208789</v>
+        <v>0.9452603022030108</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9650335574485728</v>
+        <v>0.9650637067769267</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>31952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22208</v>
+        <v>22572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47142</v>
+        <v>46811</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02436793379399932</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01693700725223549</v>
+        <v>0.01721414093493334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03595242773171412</v>
+        <v>0.03569984256227377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -981,19 +981,19 @@
         <v>24274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15924</v>
+        <v>16029</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36690</v>
+        <v>36139</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01771162514153665</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.011619194935026</v>
+        <v>0.01169575035532576</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02677097421513833</v>
+        <v>0.02636839002717397</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -1002,19 +1002,19 @@
         <v>56226</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42022</v>
+        <v>41990</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71823</v>
+        <v>74631</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02096619464121384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01566967132886954</v>
+        <v>0.01565755976850447</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02678183895162116</v>
+        <v>0.02782887556939043</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1279285</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1264095</v>
+        <v>1264426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1289029</v>
+        <v>1288665</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9756320662060006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9640475722682859</v>
+        <v>0.9643001574377266</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9830629927477645</v>
+        <v>0.9827858590650667</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1319</v>
@@ -1052,19 +1052,19 @@
         <v>1346257</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1333841</v>
+        <v>1334392</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1354607</v>
+        <v>1354502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9822883748584633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9732290257848617</v>
+        <v>0.9736316099728259</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9883808050649739</v>
+        <v>0.9883042496446742</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2568</v>
@@ -1073,19 +1073,19 @@
         <v>2625542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2609945</v>
+        <v>2607137</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2639746</v>
+        <v>2639778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9790338053587861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9732181610483788</v>
+        <v>0.9721711244306094</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9843303286711305</v>
+        <v>0.9843424402314955</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>7098</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2725</v>
+        <v>2756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14169</v>
+        <v>14292</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01574167860743655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006042174717397444</v>
+        <v>0.006112597485076268</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.031420949146886</v>
+        <v>0.03169355938001645</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1198,19 +1198,19 @@
         <v>14637</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8433</v>
+        <v>8158</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23740</v>
+        <v>24753</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03589586784085212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02068152358047068</v>
+        <v>0.02000777802387575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05822097315142982</v>
+        <v>0.06070498186923826</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1219,7 +1219,7 @@
         <v>21735</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13862</v>
+        <v>13447</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>33156</v>
@@ -1228,10 +1228,10 @@
         <v>0.02531223840009042</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01614347928371049</v>
+        <v>0.01566021731270026</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03861157516753164</v>
+        <v>0.03861162849699182</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>443831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>436760</v>
+        <v>436637</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>448204</v>
+        <v>448173</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9842583213925634</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.968579050853114</v>
+        <v>0.9683064406199835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9939578252826026</v>
+        <v>0.9938874025149238</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>374</v>
@@ -1269,19 +1269,19 @@
         <v>393128</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>384025</v>
+        <v>383012</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>399332</v>
+        <v>399607</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9641041321591479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9417790268485701</v>
+        <v>0.9392950181307618</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9793184764195293</v>
+        <v>0.9799922219761242</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>797</v>
@@ -1293,16 +1293,16 @@
         <v>825538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>844832</v>
+        <v>845247</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9746877615999096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9613884248324682</v>
+        <v>0.9613883715030083</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9838565207162895</v>
+        <v>0.9843397826872999</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>64290</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49806</v>
+        <v>48637</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80896</v>
+        <v>81935</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02623544144549551</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02032472880889192</v>
+        <v>0.01984794446507648</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03301234151462525</v>
+        <v>0.03343610597349272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1415,19 +1415,19 @@
         <v>86034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70300</v>
+        <v>69123</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107270</v>
+        <v>105366</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03143063071377918</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02568272201931696</v>
+        <v>0.02525257214440569</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0391889274398797</v>
+        <v>0.03849339884572671</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1436,19 +1436,19 @@
         <v>150323</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128875</v>
+        <v>127782</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177979</v>
+        <v>176199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02897662393162866</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02484214043558011</v>
+        <v>0.02463157344782127</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03430749489290458</v>
+        <v>0.03396449384356837</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>2386201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2369595</v>
+        <v>2368556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2400685</v>
+        <v>2401854</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9737645585545045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9669876584853748</v>
+        <v>0.9665638940265072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9796752711911082</v>
+        <v>0.9801520555349228</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2593</v>
@@ -1486,19 +1486,19 @@
         <v>2651221</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2629985</v>
+        <v>2631889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2666955</v>
+        <v>2668132</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9685693692862208</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9608110725601201</v>
+        <v>0.9615066011542729</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.974317277980683</v>
+        <v>0.9747474278555942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4933</v>
@@ -1507,19 +1507,19 @@
         <v>5037422</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5009766</v>
+        <v>5011546</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5058870</v>
+        <v>5059963</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9710233760683713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9656925051070953</v>
+        <v>0.9660355061564316</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9751578595644196</v>
+        <v>0.9753684265521786</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>14136</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7892</v>
+        <v>7270</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24745</v>
+        <v>25079</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01846118465463881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01030746204722434</v>
+        <v>0.009495335151548236</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03231664617889704</v>
+        <v>0.03275362638587917</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -1871,19 +1871,19 @@
         <v>32750</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22581</v>
+        <v>22559</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45719</v>
+        <v>46029</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02947622852473755</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02032432432683915</v>
+        <v>0.02030379944339975</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04114866458070084</v>
+        <v>0.04142820981196078</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -1892,19 +1892,19 @@
         <v>46885</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33759</v>
+        <v>34571</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62523</v>
+        <v>61080</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02498222369799987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.017987873303093</v>
+        <v>0.01842057886251559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03331481273380849</v>
+        <v>0.03254567113771105</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>751554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>740945</v>
+        <v>740611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>757798</v>
+        <v>758420</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9815388153453611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9676833538211032</v>
+        <v>0.9672463736141209</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9896925379527756</v>
+        <v>0.9905046648484519</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1007</v>
@@ -1942,19 +1942,19 @@
         <v>1078307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1065338</v>
+        <v>1065028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1088476</v>
+        <v>1088498</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9705237714752625</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9588513354192991</v>
+        <v>0.9585717901880392</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9796756756731607</v>
+        <v>0.9796962005566002</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1717</v>
@@ -1963,19 +1963,19 @@
         <v>1829862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1814224</v>
+        <v>1815667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1842988</v>
+        <v>1842176</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9750177763020001</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9666851872661915</v>
+        <v>0.9674543288622891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.982012126696907</v>
+        <v>0.9815794211374844</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>20807</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12922</v>
+        <v>12482</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32853</v>
+        <v>31156</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01268481319047493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007877675743010302</v>
+        <v>0.00760949761088294</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02002923430429188</v>
+        <v>0.01899424594182135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -2088,19 +2088,19 @@
         <v>40196</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28508</v>
+        <v>28552</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56343</v>
+        <v>56974</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02605509114530299</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01847867956206327</v>
+        <v>0.01850718117219231</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03652148440099286</v>
+        <v>0.03693052497842603</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -2109,19 +2109,19 @@
         <v>61002</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47565</v>
+        <v>46004</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79560</v>
+        <v>81808</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01916507233893832</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01494351913515739</v>
+        <v>0.01445315494949166</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02499515578014311</v>
+        <v>0.02570150925695017</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>1619469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1607423</v>
+        <v>1609120</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1627354</v>
+        <v>1627794</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9873151868095251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.979970765695708</v>
+        <v>0.9810057540581787</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9921223242569897</v>
+        <v>0.9923905023891167</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1397</v>
@@ -2159,19 +2159,19 @@
         <v>1502530</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1486383</v>
+        <v>1485752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1514218</v>
+        <v>1514174</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.973944908854697</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9634785155990075</v>
+        <v>0.9630694750215741</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9815213204379367</v>
+        <v>0.9814928188278078</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2933</v>
@@ -2180,19 +2180,19 @@
         <v>3122000</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3103442</v>
+        <v>3101194</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3135437</v>
+        <v>3136998</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9808349276610617</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9750048442198569</v>
+        <v>0.9742984907430494</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9850564808648424</v>
+        <v>0.9855468450505084</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>13842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7209</v>
+        <v>7455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23888</v>
+        <v>22986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0325179922429649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01693605383827395</v>
+        <v>0.01751309401354859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05611775198059273</v>
+        <v>0.05399809296869217</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -2305,19 +2305,19 @@
         <v>13215</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7287</v>
+        <v>7673</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22635</v>
+        <v>23375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03205041304576463</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01767350388138597</v>
+        <v>0.01860976154306725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05489677201792743</v>
+        <v>0.05669031652996558</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -2326,19 +2326,19 @@
         <v>27057</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18468</v>
+        <v>16746</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40790</v>
+        <v>39663</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03228792946873185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02203869280339947</v>
+        <v>0.01998283602281074</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04867547185285771</v>
+        <v>0.0473299139820444</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>411838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>401792</v>
+        <v>402694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>418471</v>
+        <v>418225</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9674820077570351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9438822480194076</v>
+        <v>0.9460019070313079</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9830639461617261</v>
+        <v>0.9824869059864515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>360</v>
@@ -2376,19 +2376,19 @@
         <v>399107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>389687</v>
+        <v>388947</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>405035</v>
+        <v>404649</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9679495869542354</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9451032279820726</v>
+        <v>0.9433096834700343</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.982326496118614</v>
+        <v>0.9813902384569327</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>735</v>
@@ -2397,19 +2397,19 @@
         <v>810945</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>797212</v>
+        <v>798339</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>819534</v>
+        <v>821256</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9677120705312682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9513245281471424</v>
+        <v>0.9526700860179556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9779613071966005</v>
+        <v>0.9800171639771893</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>48784</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36083</v>
+        <v>35462</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67261</v>
+        <v>64004</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01722828591396128</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01274266042484477</v>
+        <v>0.0125233209035793</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02375335846115182</v>
+        <v>0.02260302264582576</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -2522,19 +2522,19 @@
         <v>86161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68278</v>
+        <v>68375</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107961</v>
+        <v>105938</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0281010359563378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02226853094517024</v>
+        <v>0.02230024662466142</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03521107535722164</v>
+        <v>0.03455137583785173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -2543,19 +2543,19 @@
         <v>134945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112418</v>
+        <v>108903</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160986</v>
+        <v>160130</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0228807781273338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01906114037060278</v>
+        <v>0.01846518899673225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02729618112705513</v>
+        <v>0.02715107338177076</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>2782862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2764385</v>
+        <v>2767642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2795563</v>
+        <v>2796184</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9827717140860387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9762466415388484</v>
+        <v>0.9773969773541744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9872573395751553</v>
+        <v>0.987476679096421</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2764</v>
@@ -2593,19 +2593,19 @@
         <v>2979944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2958144</v>
+        <v>2960167</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2997827</v>
+        <v>2997730</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9718989640436622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9647889246427784</v>
+        <v>0.9654486241621483</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9777314690548298</v>
+        <v>0.9776997533753387</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5385</v>
@@ -2614,19 +2614,19 @@
         <v>5762807</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5736766</v>
+        <v>5737622</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5785334</v>
+        <v>5788849</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9771192218726662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9727038188729449</v>
+        <v>0.9728489266182292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.980938859629397</v>
+        <v>0.9815348110032677</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>13812</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7430</v>
+        <v>8142</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21876</v>
+        <v>22177</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03019563939302912</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01624296182696324</v>
+        <v>0.01780042816427332</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04782400217171642</v>
+        <v>0.04848353219894549</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2978,19 +2978,19 @@
         <v>22281</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14532</v>
+        <v>14490</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33828</v>
+        <v>33985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03487616127794111</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02274697936325314</v>
+        <v>0.02267999992151027</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05294886289640278</v>
+        <v>0.05319590172362309</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -2999,19 +2999,19 @@
         <v>36094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25365</v>
+        <v>26699</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49631</v>
+        <v>49877</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03292325287952251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0231374497461169</v>
+        <v>0.02435420159234079</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04527121252760529</v>
+        <v>0.04549609142506386</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>443607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>435543</v>
+        <v>435242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449989</v>
+        <v>449277</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9698043606069708</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9521759978282837</v>
+        <v>0.9515164678010545</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9837570381730367</v>
+        <v>0.9821995718357267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>561</v>
@@ -3049,19 +3049,19 @@
         <v>616593</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>605046</v>
+        <v>604889</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>624342</v>
+        <v>624384</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9651238387220589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9470511371035972</v>
+        <v>0.946804098276377</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9772530206367469</v>
+        <v>0.9773200000784897</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1007</v>
@@ -3070,19 +3070,19 @@
         <v>1060199</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1046662</v>
+        <v>1046416</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1070928</v>
+        <v>1069594</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9670767471204775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9547287874723946</v>
+        <v>0.9545039085749361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9768625502538831</v>
+        <v>0.9756457984076592</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>49081</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35733</v>
+        <v>35282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63435</v>
+        <v>64819</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02892918189731865</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02106131559498093</v>
+        <v>0.02079591267046854</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03738960362681153</v>
+        <v>0.03820533059615339</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3195,19 +3195,19 @@
         <v>32340</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22162</v>
+        <v>21761</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44738</v>
+        <v>45319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01892661669150221</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01297018822404481</v>
+        <v>0.01273498263872426</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02618222490099965</v>
+        <v>0.0265221417512949</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -3216,19 +3216,19 @@
         <v>81422</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64706</v>
+        <v>64259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102085</v>
+        <v>103143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02391010855423855</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01900142625406106</v>
+        <v>0.01887029740129387</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02997805421316375</v>
+        <v>0.0302886546563696</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>1647524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1633170</v>
+        <v>1631786</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1660872</v>
+        <v>1661323</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9710708181026814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9626103963731886</v>
+        <v>0.9617946694038463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9789386844050195</v>
+        <v>0.9792040873295313</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1616</v>
@@ -3266,19 +3266,19 @@
         <v>1676379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1663981</v>
+        <v>1663400</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1686557</v>
+        <v>1686958</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9810733833084978</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9738177750990005</v>
+        <v>0.9734778582487053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9870298117759553</v>
+        <v>0.9872650173612757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3170</v>
@@ -3287,19 +3287,19 @@
         <v>3323902</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3303239</v>
+        <v>3302181</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3340618</v>
+        <v>3341065</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9760898914457614</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9700219457868362</v>
+        <v>0.9697113453436305</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9809985737459389</v>
+        <v>0.9811297025987061</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>13168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6490</v>
+        <v>7167</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21912</v>
+        <v>22838</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02637627933801239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01299907547680532</v>
+        <v>0.01435659618303022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04389111544993553</v>
+        <v>0.04574567687707566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -3412,19 +3412,19 @@
         <v>21778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13069</v>
+        <v>13476</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33114</v>
+        <v>32501</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04284338350005375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02571069136522512</v>
+        <v>0.02651168407984293</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06514377883968639</v>
+        <v>0.06393711057470602</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -3433,19 +3433,19 @@
         <v>34946</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24913</v>
+        <v>24447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48137</v>
+        <v>48909</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03468399315499245</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02472582417485032</v>
+        <v>0.02426324253830384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04777536178285839</v>
+        <v>0.04854147278052805</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>486076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>477332</v>
+        <v>476406</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492754</v>
+        <v>492077</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9736237206619877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9561088845500648</v>
+        <v>0.9542543231229239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9870009245231948</v>
+        <v>0.9856434038169697</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>468</v>
@@ -3483,19 +3483,19 @@
         <v>486542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>475206</v>
+        <v>475819</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>495251</v>
+        <v>494844</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9571566164999462</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9348562211603136</v>
+        <v>0.936062889425294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9742893086347748</v>
+        <v>0.9734883159201571</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>915</v>
@@ -3504,19 +3504,19 @@
         <v>972618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>959427</v>
+        <v>958655</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>982651</v>
+        <v>983117</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9653160068450075</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9522246382171415</v>
+        <v>0.951458527219472</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9752741758251496</v>
+        <v>0.9757367574616962</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>76062</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59063</v>
+        <v>60961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95025</v>
+        <v>95965</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02866715783037389</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02226044886678035</v>
+        <v>0.02297588681398597</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03581429372518861</v>
+        <v>0.03616875975542282</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -3629,19 +3629,19 @@
         <v>76400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60607</v>
+        <v>59794</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95224</v>
+        <v>96258</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02675147715529103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02122170305908648</v>
+        <v>0.02093682003322617</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03334263467658857</v>
+        <v>0.03370470951021684</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -3650,19 +3650,19 @@
         <v>152462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129042</v>
+        <v>129983</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>181148</v>
+        <v>177717</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02767408530229487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02342302309368378</v>
+        <v>0.02359383805468131</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03288113111775823</v>
+        <v>0.03225824951995332</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>2577207</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2558244</v>
+        <v>2557304</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2594206</v>
+        <v>2592308</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9713328421696261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9641857062748113</v>
+        <v>0.9638312402445777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9777395511332196</v>
+        <v>0.9770241131860141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2645</v>
@@ -3700,19 +3700,19 @@
         <v>2779513</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2760689</v>
+        <v>2759655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2795306</v>
+        <v>2796119</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.973248522844709</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9666573653234114</v>
+        <v>0.9662952904897832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9787782969409135</v>
+        <v>0.9790631799667738</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5092</v>
@@ -3721,19 +3721,19 @@
         <v>5356720</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5328034</v>
+        <v>5331465</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5380140</v>
+        <v>5379199</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9723259146977051</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9671188688822424</v>
+        <v>0.9677417504800461</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9765769769063165</v>
+        <v>0.9764061619453187</v>
       </c>
     </row>
     <row r="15">
